--- a/0_documents/2_docs/indiv_model_results_multiagent_20250529.xlsx
+++ b/0_documents/2_docs/indiv_model_results_multiagent_20250529.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/04_git/code-generation/0_documents/2_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8278FDB3-75EC-8D45-8BBB-16F322FEBE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D6F1D5-13BE-D446-ADEC-BF28C2172A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="22360" windowHeight="17480" activeTab="2" xr2:uid="{C9D0F527-0BC8-1244-93BD-714AFEC4ED61}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="22360" windowHeight="17480" xr2:uid="{C9D0F527-0BC8-1244-93BD-714AFEC4ED61}"/>
   </bookViews>
   <sheets>
     <sheet name="HumanEval_Multiagent" sheetId="22" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418CECD7-15F9-2A41-B7A3-02035A697F27}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1400,6 +1400,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="G14">
         <f>MAX(G2:G13)</f>
         <v>0.59185178350524503</v>
@@ -1453,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6476CE9-6AC9-F74E-A626-22FBE9F82B51}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,7 +1472,10 @@
     <col min="6" max="6" width="6.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="158" thickBot="1" x14ac:dyDescent="0.25">
@@ -2159,6 +2165,52 @@
       </c>
       <c r="Q13">
         <v>0.18081465309310099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f>MAX(G2:G13)</f>
+        <v>0.33080114536022798</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:Q14" si="0">MAX(H2:H13)</f>
+        <v>0.34791047444448397</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.353610488560957</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.35625485996416201</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.357420521670125</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.35793621334560999</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.35385452479099799</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.35233597495204599</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.35496796340772202</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.36366962680555998</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.32904102840562799</v>
       </c>
     </row>
   </sheetData>
@@ -2171,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7177EE37-76A1-244B-B3C6-89EE825C6972}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2935,7 +2987,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
